--- a/swing_strategy_vix_sim_20260116.xlsx
+++ b/swing_strategy_vix_sim_20260116.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X113"/>
+  <dimension ref="A1:X109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,11 +571,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.69 - 14.87</t>
+          <t>14.71 - 14.89</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14.78</v>
+        <v>14.8</v>
       </c>
       <c r="F2" t="n">
         <v>13.69</v>
@@ -663,14 +663,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>56.68 - 57.36</t>
+          <t>56.25 - 56.94</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>57.02</v>
+        <v>56.59</v>
       </c>
       <c r="F3" t="n">
-        <v>54.45</v>
+        <v>54.02</v>
       </c>
       <c r="G3" t="n">
         <v>68.42</v>
@@ -755,14 +755,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>72.52 - 73.40</t>
+          <t>72.39 - 73.26</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>72.95999999999999</v>
+        <v>72.81999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>69.68000000000001</v>
+        <v>69.54000000000001</v>
       </c>
       <c r="G4" t="n">
         <v>87.55</v>
@@ -847,14 +847,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.61 - 2.65</t>
+          <t>2.63 - 2.66</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="F5" t="n">
-        <v>2.51</v>
+        <v>2.52</v>
       </c>
       <c r="G5" t="n">
         <v>3.16</v>
@@ -939,14 +939,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>36.26 - 36.70</t>
+          <t>36.34 - 36.78</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>36.48</v>
+        <v>36.56</v>
       </c>
       <c r="F6" t="n">
-        <v>33.56</v>
+        <v>33.64</v>
       </c>
       <c r="G6" t="n">
         <v>43.78</v>
@@ -1031,11 +1031,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26.90 - 27.22</t>
+          <t>26.97 - 27.29</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>27.06</v>
+        <v>27.13</v>
       </c>
       <c r="F7" t="n">
         <v>25.63</v>
@@ -1123,11 +1123,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>30.09 - 30.45</t>
+          <t>30.13 - 30.49</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>30.27</v>
+        <v>30.31</v>
       </c>
       <c r="F8" t="n">
         <v>28.43</v>
@@ -1215,14 +1215,14 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>169.78 - 171.82</t>
+          <t>170.74 - 172.79</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>170.8</v>
+        <v>171.76</v>
       </c>
       <c r="F9" t="n">
-        <v>163.11</v>
+        <v>164.07</v>
       </c>
       <c r="G9" t="n">
         <v>204.96</v>
@@ -1307,11 +1307,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>14.59 - 14.77</t>
+          <t>14.54 - 14.72</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>14.68</v>
+        <v>14.63</v>
       </c>
       <c r="F10" t="n">
         <v>13.87</v>
@@ -1399,14 +1399,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>46.99 - 47.55</t>
+          <t>46.75 - 47.31</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>47.27</v>
+        <v>47.03</v>
       </c>
       <c r="F11" t="n">
-        <v>45.14</v>
+        <v>44.9</v>
       </c>
       <c r="G11" t="n">
         <v>56.72</v>
@@ -1491,14 +1491,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>123.79 - 125.29</t>
+          <t>124.95 - 126.44</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>124.54</v>
+        <v>125.69</v>
       </c>
       <c r="F12" t="n">
-        <v>118.94</v>
+        <v>120.09</v>
       </c>
       <c r="G12" t="n">
         <v>149.45</v>
@@ -1583,11 +1583,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>42.47 - 42.99</t>
+          <t>42.16 - 42.67</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>42.73</v>
+        <v>42.41</v>
       </c>
       <c r="F13" t="n">
         <v>40.3</v>
@@ -1675,14 +1675,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>51.68 - 52.30</t>
+          <t>52.36 - 52.98</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>51.99</v>
+        <v>52.67</v>
       </c>
       <c r="F14" t="n">
-        <v>49.65</v>
+        <v>50.33</v>
       </c>
       <c r="G14" t="n">
         <v>62.39</v>
@@ -1767,14 +1767,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>425.57 - 430.71</t>
+          <t>429.27 - 434.41</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>428.14</v>
+        <v>431.84</v>
       </c>
       <c r="F15" t="n">
-        <v>408.87</v>
+        <v>412.57</v>
       </c>
       <c r="G15" t="n">
         <v>513.77</v>
@@ -1859,14 +1859,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>24.13 - 24.43</t>
+          <t>24.42 - 24.71</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>24.28</v>
+        <v>24.57</v>
       </c>
       <c r="F16" t="n">
-        <v>22.56</v>
+        <v>22.6</v>
       </c>
       <c r="G16" t="n">
         <v>29.14</v>
@@ -1951,14 +1951,14 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.48 - 4.54</t>
+          <t>4.44 - 4.49</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4.51</v>
+        <v>4.47</v>
       </c>
       <c r="F17" t="n">
-        <v>4.15</v>
+        <v>4.11</v>
       </c>
       <c r="G17" t="n">
         <v>5.41</v>
@@ -2043,11 +2043,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>288.63 - 292.11</t>
+          <t>288.79 - 292.27</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>290.37</v>
+        <v>290.53</v>
       </c>
       <c r="F18" t="n">
         <v>276.83</v>
@@ -2135,14 +2135,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>202.97 - 205.43</t>
+          <t>203.05 - 205.50</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>204.2</v>
+        <v>204.27</v>
       </c>
       <c r="F19" t="n">
-        <v>195.01</v>
+        <v>195.08</v>
       </c>
       <c r="G19" t="n">
         <v>245.04</v>
@@ -2227,11 +2227,11 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>91.36 - 92.46</t>
+          <t>91.22 - 92.32</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>91.91</v>
+        <v>91.77</v>
       </c>
       <c r="F20" t="n">
         <v>86.73</v>
@@ -2319,14 +2319,14 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>54.80 - 55.46</t>
+          <t>54.84 - 55.50</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>55.13</v>
+        <v>55.17</v>
       </c>
       <c r="F21" t="n">
-        <v>52.65</v>
+        <v>52.69</v>
       </c>
       <c r="G21" t="n">
         <v>66.16</v>
@@ -2411,14 +2411,14 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>17.13 - 17.33</t>
+          <t>17.02 - 17.23</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>17.23</v>
+        <v>17.12</v>
       </c>
       <c r="F22" t="n">
-        <v>16.45</v>
+        <v>16.34</v>
       </c>
       <c r="G22" t="n">
         <v>20.68</v>
@@ -2503,14 +2503,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>114.65 - 116.03</t>
+          <t>113.96 - 115.35</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>115.34</v>
+        <v>114.66</v>
       </c>
       <c r="F23" t="n">
-        <v>106.11</v>
+        <v>105.49</v>
       </c>
       <c r="G23" t="n">
         <v>138.41</v>
@@ -2595,14 +2595,14 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>30.09 - 30.45</t>
+          <t>30.33 - 30.70</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>30.27</v>
+        <v>30.51</v>
       </c>
       <c r="F24" t="n">
-        <v>28.91</v>
+        <v>29.15</v>
       </c>
       <c r="G24" t="n">
         <v>36.32</v>
@@ -2687,14 +2687,14 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>167.02 - 169.04</t>
+          <t>166.43 - 168.45</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>168.03</v>
+        <v>167.44</v>
       </c>
       <c r="F25" t="n">
-        <v>160.47</v>
+        <v>159.88</v>
       </c>
       <c r="G25" t="n">
         <v>201.64</v>
@@ -2779,14 +2779,14 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>141.56 - 143.26</t>
+          <t>142.17 - 143.87</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>142.41</v>
+        <v>143.02</v>
       </c>
       <c r="F26" t="n">
-        <v>136</v>
+        <v>136.61</v>
       </c>
       <c r="G26" t="n">
         <v>170.89</v>
@@ -2871,11 +2871,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>12.31 - 12.45</t>
+          <t>12.29 - 12.44</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>12.38</v>
+        <v>12.37</v>
       </c>
       <c r="F27" t="n">
         <v>11.57</v>
@@ -2963,14 +2963,14 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>63.86 - 64.64</t>
+          <t>63.91 - 64.68</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>64.25</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>61.36</v>
+        <v>61.4</v>
       </c>
       <c r="G28" t="n">
         <v>77.09999999999999</v>
@@ -3055,14 +3055,14 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>350.18 - 354.40</t>
+          <t>347.79 - 352.02</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>352.29</v>
+        <v>349.9</v>
       </c>
       <c r="F29" t="n">
-        <v>336.44</v>
+        <v>334.05</v>
       </c>
       <c r="G29" t="n">
         <v>422.75</v>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>37.05 - 37.49</t>
+          <t>37.05 - 37.50</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -3239,14 +3239,14 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>331.35 - 335.35</t>
+          <t>331.57 - 335.57</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>333.35</v>
+        <v>333.57</v>
       </c>
       <c r="F31" t="n">
-        <v>318.35</v>
+        <v>318.57</v>
       </c>
       <c r="G31" t="n">
         <v>400.02</v>
@@ -3331,14 +3331,14 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>83.03 - 84.03</t>
+          <t>82.65 - 83.65</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>83.53</v>
+        <v>83.15000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>79.77</v>
+        <v>79.39</v>
       </c>
       <c r="G32" t="n">
         <v>100.24</v>
@@ -3423,11 +3423,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>74.70 - 75.60</t>
+          <t>74.26 - 75.17</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>75.15000000000001</v>
+        <v>74.70999999999999</v>
       </c>
       <c r="F33" t="n">
         <v>70.67</v>
@@ -3515,14 +3515,14 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>154.92 - 156.80</t>
+          <t>154.74 - 156.61</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>155.86</v>
+        <v>155.67</v>
       </c>
       <c r="F34" t="n">
-        <v>148.85</v>
+        <v>148.66</v>
       </c>
       <c r="G34" t="n">
         <v>187.03</v>
@@ -3607,14 +3607,14 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>52.00 - 52.62</t>
+          <t>51.56 - 52.18</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>52.31</v>
+        <v>51.87</v>
       </c>
       <c r="F35" t="n">
-        <v>49.96</v>
+        <v>49.52</v>
       </c>
       <c r="G35" t="n">
         <v>62.77</v>
@@ -3699,14 +3699,14 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>78.98 - 79.94</t>
+          <t>79.03 - 79.98</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>79.45999999999999</v>
+        <v>79.51000000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>75.88</v>
+        <v>75.93000000000001</v>
       </c>
       <c r="G36" t="n">
         <v>95.34999999999999</v>
@@ -3883,14 +3883,14 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>67.21 - 68.03</t>
+          <t>67.18 - 67.99</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>67.62</v>
+        <v>67.58</v>
       </c>
       <c r="F38" t="n">
-        <v>64.58</v>
+        <v>64.54000000000001</v>
       </c>
       <c r="G38" t="n">
         <v>81.14</v>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>37.18 - 37.62</t>
+          <t>36.93 - 37.38</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>37.4</v>
+        <v>37.15</v>
       </c>
       <c r="F39" t="n">
         <v>34.52</v>
@@ -4067,14 +4067,14 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>41.57 - 42.07</t>
+          <t>41.55 - 42.05</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>41.82</v>
+        <v>41.8</v>
       </c>
       <c r="F40" t="n">
-        <v>39.94</v>
+        <v>39.92</v>
       </c>
       <c r="G40" t="n">
         <v>50.18</v>
@@ -4159,11 +4159,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>52.28 - 52.92</t>
+          <t>51.96 - 52.59</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>52.6</v>
+        <v>52.28</v>
       </c>
       <c r="F41" t="n">
         <v>49.26</v>
@@ -4251,14 +4251,14 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>706.22 - 714.74</t>
+          <t>702.89 - 711.42</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>710.48</v>
+        <v>707.15</v>
       </c>
       <c r="F42" t="n">
-        <v>678.51</v>
+        <v>675.1799999999999</v>
       </c>
       <c r="G42" t="n">
         <v>852.58</v>
@@ -4343,14 +4343,14 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>236.57 - 239.43</t>
+          <t>236.37 - 239.23</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>238</v>
+        <v>237.8</v>
       </c>
       <c r="F43" t="n">
-        <v>227.29</v>
+        <v>227.09</v>
       </c>
       <c r="G43" t="n">
         <v>285.6</v>
@@ -4435,11 +4435,11 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>149.87 - 151.67</t>
+          <t>149.79 - 151.60</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>150.77</v>
+        <v>150.7</v>
       </c>
       <c r="F44" t="n">
         <v>140.7</v>
@@ -4527,14 +4527,14 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>21.26 - 21.52</t>
+          <t>21.21 - 21.46</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>21.39</v>
+        <v>21.34</v>
       </c>
       <c r="F45" t="n">
-        <v>20.43</v>
+        <v>20.38</v>
       </c>
       <c r="G45" t="n">
         <v>25.67</v>
@@ -4619,14 +4619,14 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>74.23 - 75.13</t>
+          <t>73.81 - 74.71</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>74.68000000000001</v>
+        <v>74.26000000000001</v>
       </c>
       <c r="F46" t="n">
-        <v>71.31999999999999</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="G46" t="n">
         <v>89.62</v>
@@ -4703,59 +4703,59 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TXNM</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>59.1</v>
+        <v>203.2</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>58.75 - 59.45</t>
+          <t>202.92 - 205.36</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>59.1</v>
+        <v>204.14</v>
       </c>
       <c r="F47" t="n">
-        <v>56.44</v>
+        <v>193.32</v>
       </c>
       <c r="G47" t="n">
-        <v>70.92</v>
+        <v>243.84</v>
       </c>
       <c r="H47" t="n">
-        <v>66.09999999999999</v>
+        <v>70.93000000000001</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>-0</v>
+        <v>0.18</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.16</v>
+        <v>0.18</v>
       </c>
       <c r="L47" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="M47" t="n">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="N47" t="n">
-        <v>108921356</v>
+        <v>57596887</v>
       </c>
       <c r="O47" t="n">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="P47" t="n">
-        <v>-1.32</v>
+        <v>0.65</v>
       </c>
       <c r="Q47" t="n">
-        <v>6437252096</v>
+        <v>11703687168</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -4764,16 +4764,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>43.01</v>
+        <v>42.99</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>极度缩量(隐蔽吸筹)</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -4795,55 +4795,55 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>ITT</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>203.2</v>
+        <v>180.97</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>201.98 - 204.42</t>
+          <t>180.68 - 182.85</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>203.2</v>
+        <v>181.77</v>
       </c>
       <c r="F48" t="n">
-        <v>193.32</v>
+        <v>173.63</v>
       </c>
       <c r="G48" t="n">
-        <v>243.84</v>
+        <v>217.16</v>
       </c>
       <c r="H48" t="n">
-        <v>70.93000000000001</v>
+        <v>69.76000000000001</v>
       </c>
       <c r="I48" t="n">
         <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>0.18</v>
+        <v>-0.22</v>
       </c>
       <c r="K48" t="n">
-        <v>0.18</v>
+        <v>-0.17</v>
       </c>
       <c r="L48" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="M48" t="n">
         <v>0.18</v>
       </c>
       <c r="N48" t="n">
-        <v>57596887</v>
+        <v>86040014</v>
       </c>
       <c r="O48" t="n">
-        <v>0.78</v>
+        <v>0.87</v>
       </c>
       <c r="P48" t="n">
-        <v>0.65</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q48" t="n">
-        <v>11703687168</v>
+        <v>15570661376</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>42.99</v>
+        <v>40.68</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -4887,59 +4887,59 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ITT</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>180.97</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>179.88 - 182.06</t>
+          <t>65.81 - 66.61</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>180.97</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>172.83</v>
+        <v>63.23</v>
       </c>
       <c r="G49" t="n">
-        <v>217.16</v>
+        <v>79.45</v>
       </c>
       <c r="H49" t="n">
-        <v>69.76000000000001</v>
+        <v>80.22</v>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.22</v>
+        <v>-0.28</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.17</v>
+        <v>-0.26</v>
       </c>
       <c r="L49" t="n">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
       <c r="M49" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="N49" t="n">
-        <v>86040014</v>
+        <v>235581025</v>
       </c>
       <c r="O49" t="n">
-        <v>0.87</v>
+        <v>0.63</v>
       </c>
       <c r="P49" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="Q49" t="n">
-        <v>15570661376</v>
+        <v>31179126784</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -4948,7 +4948,7 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>40.68</v>
+        <v>40.54</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
@@ -4979,59 +4979,59 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FOX</t>
+          <t>CAE</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>66.20999999999999</v>
+        <v>32.89</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>65.81 - 66.61</t>
+          <t>32.55 - 32.95</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>66.20999999999999</v>
+        <v>32.75</v>
       </c>
       <c r="F50" t="n">
-        <v>63.23</v>
+        <v>31.27</v>
       </c>
       <c r="G50" t="n">
-        <v>79.45</v>
+        <v>39.47</v>
       </c>
       <c r="H50" t="n">
-        <v>80.22</v>
+        <v>74.37</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.28</v>
+        <v>0.41</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.26</v>
+        <v>0.44</v>
       </c>
       <c r="L50" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="M50" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="N50" t="n">
-        <v>235581025</v>
+        <v>321548127</v>
       </c>
       <c r="O50" t="n">
-        <v>0.63</v>
+        <v>0.77</v>
       </c>
       <c r="P50" t="n">
-        <v>0.7</v>
+        <v>0.55</v>
       </c>
       <c r="Q50" t="n">
-        <v>31179126784</v>
+        <v>10584142848</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -5040,7 +5040,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>40.54</v>
+        <v>39.56</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -5071,55 +5071,55 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CAE</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>32.89</v>
+        <v>638.75</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>32.69 - 33.09</t>
+          <t>629.68 - 637.34</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>32.89</v>
+        <v>633.51</v>
       </c>
       <c r="F51" t="n">
-        <v>31.41</v>
+        <v>591.2</v>
       </c>
       <c r="G51" t="n">
-        <v>39.47</v>
+        <v>766.5</v>
       </c>
       <c r="H51" t="n">
-        <v>74.37</v>
+        <v>87.16</v>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>0.41</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="K51" t="n">
-        <v>0.44</v>
+        <v>-0.04</v>
       </c>
       <c r="L51" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="M51" t="n">
-        <v>0.09</v>
+        <v>0.46</v>
       </c>
       <c r="N51" t="n">
-        <v>321548127</v>
+        <v>467979596</v>
       </c>
       <c r="O51" t="n">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="P51" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="Q51" t="n">
-        <v>10584142848</v>
+        <v>299240914944</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>39.56</v>
+        <v>37.89</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
@@ -5163,59 +5163,59 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MDU</t>
+          <t>TPR</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>20.32</v>
+        <v>133.17</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>20.20 - 20.44</t>
+          <t>132.21 - 133.81</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>20.32</v>
+        <v>133.01</v>
       </c>
       <c r="F52" t="n">
-        <v>19.41</v>
+        <v>127.02</v>
       </c>
       <c r="G52" t="n">
-        <v>24.38</v>
+        <v>159.8</v>
       </c>
       <c r="H52" t="n">
-        <v>67.15000000000001</v>
+        <v>87.45</v>
       </c>
       <c r="I52" t="n">
+        <v>3</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="N52" t="n">
+        <v>204649752</v>
+      </c>
+      <c r="O52" t="n">
         <v>1</v>
       </c>
-      <c r="J52" t="n">
-        <v>-0.72</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-0.72</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="N52" t="n">
-        <v>205905663</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0.85</v>
-      </c>
       <c r="P52" t="n">
-        <v>0.48</v>
+        <v>0.72</v>
       </c>
       <c r="Q52" t="n">
-        <v>4184003072</v>
+        <v>27566921728</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -5224,16 +5224,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>39.28</v>
+        <v>37.72</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>极度缩量(隐蔽吸筹)</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
@@ -5243,7 +5243,7 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>防御性对冲</t>
         </is>
       </c>
     </row>
@@ -5255,59 +5255,59 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>TSEM</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>638.75</v>
+        <v>123.2</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>634.92 - 642.58</t>
+          <t>121.68 - 123.16</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>638.75</v>
+        <v>122.42</v>
       </c>
       <c r="F53" t="n">
-        <v>591.2</v>
+        <v>112.63</v>
       </c>
       <c r="G53" t="n">
-        <v>766.5</v>
+        <v>147.84</v>
       </c>
       <c r="H53" t="n">
-        <v>87.16</v>
+        <v>95.7</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.02</v>
       </c>
       <c r="K53" t="n">
         <v>-0.04</v>
       </c>
       <c r="L53" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M53" t="n">
-        <v>0.46</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N53" t="n">
-        <v>467979596</v>
+        <v>112447737</v>
       </c>
       <c r="O53" t="n">
         <v>0.74</v>
       </c>
       <c r="P53" t="n">
-        <v>0.54</v>
+        <v>-0.06</v>
       </c>
       <c r="Q53" t="n">
-        <v>299240914944</v>
+        <v>13853560832</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -5316,16 +5316,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>37.89</v>
+        <v>37.59</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>底部试探</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>trend_pullback</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -5347,55 +5347,55 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TPR</t>
+          <t>MGA</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>133.17</v>
+        <v>56.53</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>132.37 - 133.97</t>
+          <t>56.33 - 57.01</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>133.17</v>
+        <v>56.67</v>
       </c>
       <c r="F54" t="n">
-        <v>127.18</v>
+        <v>54.13</v>
       </c>
       <c r="G54" t="n">
-        <v>159.8</v>
+        <v>67.84</v>
       </c>
       <c r="H54" t="n">
-        <v>87.45</v>
+        <v>80.91</v>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>0.47</v>
+        <v>-0.37</v>
       </c>
       <c r="K54" t="n">
-        <v>0.62</v>
+        <v>-0.36</v>
       </c>
       <c r="L54" t="n">
-        <v>0.13</v>
+        <v>0.02</v>
       </c>
       <c r="M54" t="n">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="N54" t="n">
-        <v>204649752</v>
+        <v>281814257</v>
       </c>
       <c r="O54" t="n">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="P54" t="n">
-        <v>0.72</v>
+        <v>0.48</v>
       </c>
       <c r="Q54" t="n">
-        <v>27566921728</v>
+        <v>15991187456</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>37.72</v>
+        <v>36.98</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -5439,59 +5439,59 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TSEM</t>
+          <t>MCY</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>123.2</v>
+        <v>89.95</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>122.46 - 123.94</t>
+          <t>88.99 - 90.07</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>123.2</v>
+        <v>89.53</v>
       </c>
       <c r="F55" t="n">
-        <v>113.34</v>
+        <v>85.48</v>
       </c>
       <c r="G55" t="n">
-        <v>147.84</v>
+        <v>107.94</v>
       </c>
       <c r="H55" t="n">
-        <v>95.7</v>
+        <v>86.51000000000001</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.02</v>
+        <v>0.22</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.04</v>
+        <v>0.21</v>
       </c>
       <c r="L55" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="M55" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="N55" t="n">
-        <v>112447737</v>
+        <v>55388627</v>
       </c>
       <c r="O55" t="n">
-        <v>0.74</v>
+        <v>0.47</v>
       </c>
       <c r="P55" t="n">
-        <v>-0.06</v>
+        <v>0.42</v>
       </c>
       <c r="Q55" t="n">
-        <v>13853560832</v>
+        <v>4982206976</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -5500,11 +5500,11 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>37.59</v>
+        <v>36.97</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>底部试探</t>
+          <t>极度缩量(隐蔽吸筹)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
@@ -5531,59 +5531,59 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MGA</t>
+          <t>WCC</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>56.53</v>
+        <v>276.65</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>56.19 - 56.87</t>
+          <t>273.66 - 276.98</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>56.53</v>
+        <v>275.32</v>
       </c>
       <c r="F56" t="n">
-        <v>53.99</v>
+        <v>260.54</v>
       </c>
       <c r="G56" t="n">
-        <v>67.84</v>
+        <v>331.98</v>
       </c>
       <c r="H56" t="n">
-        <v>80.91</v>
+        <v>82.84999999999999</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.37</v>
+        <v>-0.08</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.36</v>
+        <v>-0</v>
       </c>
       <c r="L56" t="n">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
       <c r="M56" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="N56" t="n">
-        <v>281814257</v>
+        <v>48646230</v>
       </c>
       <c r="O56" t="n">
-        <v>0.72</v>
+        <v>1.04</v>
       </c>
       <c r="P56" t="n">
-        <v>0.48</v>
+        <v>1.05</v>
       </c>
       <c r="Q56" t="n">
-        <v>15991187456</v>
+        <v>13462540288</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -5592,7 +5592,7 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>36.98</v>
+        <v>35.52</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
@@ -5611,7 +5611,7 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>防御性对冲</t>
         </is>
       </c>
     </row>
@@ -5623,59 +5623,59 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MCY</t>
+          <t>BRC</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>89.95</v>
+        <v>82.43000000000001</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>89.41 - 90.49</t>
+          <t>81.64 - 82.63</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>89.95</v>
+        <v>82.14</v>
       </c>
       <c r="F57" t="n">
-        <v>85.90000000000001</v>
+        <v>78.43000000000001</v>
       </c>
       <c r="G57" t="n">
-        <v>107.94</v>
+        <v>98.92</v>
       </c>
       <c r="H57" t="n">
-        <v>86.51000000000001</v>
+        <v>66.25</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="K57" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="L57" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="M57" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="N57" t="n">
-        <v>55388627</v>
+        <v>43638096</v>
       </c>
       <c r="O57" t="n">
-        <v>0.47</v>
+        <v>0.84</v>
       </c>
       <c r="P57" t="n">
-        <v>0.42</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q57" t="n">
-        <v>4982206976</v>
+        <v>3888777472</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
@@ -5684,7 +5684,7 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>36.97</v>
+        <v>34.59</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>trend_pullback</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
@@ -5703,7 +5703,7 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -5715,59 +5715,59 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>WCC</t>
+          <t>ACAD</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>276.65</v>
+        <v>26.86</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>274.99 - 278.31</t>
+          <t>26.46 - 26.78</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>276.65</v>
+        <v>26.62</v>
       </c>
       <c r="F58" t="n">
-        <v>260.54</v>
+        <v>25.41</v>
       </c>
       <c r="G58" t="n">
-        <v>331.98</v>
+        <v>32.23</v>
       </c>
       <c r="H58" t="n">
-        <v>82.84999999999999</v>
+        <v>79.56999999999999</v>
       </c>
       <c r="I58" t="n">
         <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.08</v>
+        <v>1.19</v>
       </c>
       <c r="K58" t="n">
-        <v>-0</v>
+        <v>1.13</v>
       </c>
       <c r="L58" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="N58" t="n">
+        <v>169181817</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P58" t="n">
         <v>0.13</v>
       </c>
-      <c r="M58" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="N58" t="n">
-        <v>48646230</v>
-      </c>
-      <c r="O58" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P58" t="n">
-        <v>1.05</v>
-      </c>
       <c r="Q58" t="n">
-        <v>13462540288</v>
+        <v>4544223744</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -5776,7 +5776,7 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>35.52</v>
+        <v>33.52</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>trend_pullback</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
@@ -5807,55 +5807,55 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BRC</t>
+          <t>RBC</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>82.43000000000001</v>
+        <v>489.33</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>81.94 - 82.92</t>
+          <t>484.61 - 490.48</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>82.43000000000001</v>
+        <v>487.54</v>
       </c>
       <c r="F59" t="n">
-        <v>78.72</v>
+        <v>465.52</v>
       </c>
       <c r="G59" t="n">
-        <v>98.92</v>
+        <v>587.2</v>
       </c>
       <c r="H59" t="n">
-        <v>66.25</v>
+        <v>83</v>
       </c>
       <c r="I59" t="n">
         <v>2</v>
       </c>
       <c r="J59" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="K59" t="n">
         <v>0.15</v>
       </c>
-      <c r="K59" t="n">
-        <v>0.17</v>
-      </c>
       <c r="L59" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="M59" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="N59" t="n">
-        <v>43638096</v>
+        <v>31611442</v>
       </c>
       <c r="O59" t="n">
-        <v>0.84</v>
+        <v>1.02</v>
       </c>
       <c r="P59" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="Q59" t="n">
-        <v>3888777472</v>
+        <v>15468426240</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -5868,16 +5868,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>34.59</v>
+        <v>33.02</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>极度缩量(隐蔽吸筹)</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
@@ -5887,7 +5887,7 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>防御性对冲</t>
         </is>
       </c>
     </row>
@@ -5899,59 +5899,59 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ACAD</t>
+          <t>ROL</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>26.86</v>
+        <v>62.16</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>26.70 - 27.02</t>
+          <t>61.43 - 62.18</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>26.86</v>
+        <v>61.81</v>
       </c>
       <c r="F60" t="n">
-        <v>25.65</v>
+        <v>58.89</v>
       </c>
       <c r="G60" t="n">
-        <v>32.23</v>
+        <v>74.59</v>
       </c>
       <c r="H60" t="n">
-        <v>79.56999999999999</v>
+        <v>71.22</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>1.19</v>
+        <v>0.19</v>
       </c>
       <c r="K60" t="n">
-        <v>1.13</v>
+        <v>0.2</v>
       </c>
       <c r="L60" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="M60" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="N60" t="n">
-        <v>169181817</v>
+        <v>481150554</v>
       </c>
       <c r="O60" t="n">
-        <v>1.02</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P60" t="n">
-        <v>0.13</v>
+        <v>0.86</v>
       </c>
       <c r="Q60" t="n">
-        <v>4544223744</v>
+        <v>29908318208</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -5960,16 +5960,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>33.52</v>
+        <v>32.52</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>底部试探</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>trend_pullback</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
@@ -5991,59 +5991,59 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>RBC</t>
+          <t>IAG</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>489.33</v>
+        <v>17.81</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>486.39 - 492.27</t>
+          <t>17.52 - 17.73</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>489.33</v>
+        <v>17.63</v>
       </c>
       <c r="F61" t="n">
-        <v>466.41</v>
+        <v>16.45</v>
       </c>
       <c r="G61" t="n">
-        <v>587.2</v>
+        <v>21.37</v>
       </c>
       <c r="H61" t="n">
-        <v>83</v>
+        <v>96.64</v>
       </c>
       <c r="I61" t="n">
         <v>2</v>
       </c>
       <c r="J61" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="M61" t="n">
         <v>0.11</v>
       </c>
-      <c r="K61" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.09</v>
-      </c>
       <c r="N61" t="n">
-        <v>31611442</v>
+        <v>593025980</v>
       </c>
       <c r="O61" t="n">
-        <v>1.02</v>
+        <v>0.76</v>
       </c>
       <c r="P61" t="n">
-        <v>0.61</v>
+        <v>-0.46</v>
       </c>
       <c r="Q61" t="n">
-        <v>15468426240</v>
+        <v>10561792000</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -6052,7 +6052,7 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>33.02</v>
+        <v>32.39</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -6083,59 +6083,59 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>ROK</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>62.16</v>
+        <v>417.21</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>61.79 - 62.53</t>
+          <t>413.50 - 418.51</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>62.16</v>
+        <v>416.01</v>
       </c>
       <c r="F62" t="n">
-        <v>58.89</v>
+        <v>397.24</v>
       </c>
       <c r="G62" t="n">
-        <v>74.59</v>
+        <v>500.65</v>
       </c>
       <c r="H62" t="n">
-        <v>71.22</v>
+        <v>79.64</v>
       </c>
       <c r="I62" t="n">
         <v>2</v>
       </c>
       <c r="J62" t="n">
-        <v>0.19</v>
+        <v>-0.42</v>
       </c>
       <c r="K62" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M62" t="n">
         <v>0.2</v>
       </c>
-      <c r="L62" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.36</v>
-      </c>
       <c r="N62" t="n">
-        <v>481150554</v>
+        <v>112433185</v>
       </c>
       <c r="O62" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="P62" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="Q62" t="n">
-        <v>29908318208</v>
+        <v>46908248064</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -6144,11 +6144,11 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>32.52</v>
+        <v>31.01</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>底部试探</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
@@ -6175,59 +6175,59 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>IAG</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>17.81</v>
+        <v>192.27</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>17.70 - 17.92</t>
+          <t>190.60 - 192.91</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>17.81</v>
+        <v>191.75</v>
       </c>
       <c r="F63" t="n">
-        <v>16.45</v>
+        <v>183.1</v>
       </c>
       <c r="G63" t="n">
-        <v>21.37</v>
+        <v>230.72</v>
       </c>
       <c r="H63" t="n">
-        <v>96.64</v>
+        <v>67.17</v>
       </c>
       <c r="I63" t="n">
         <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.76</v>
+        <v>-0.03</v>
       </c>
       <c r="K63" t="n">
-        <v>-0.77</v>
+        <v>0.02</v>
       </c>
       <c r="L63" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="N63" t="n">
-        <v>593025980</v>
+        <v>40376534</v>
       </c>
       <c r="O63" t="n">
-        <v>0.76</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="P63" t="n">
-        <v>-0.46</v>
+        <v>-0.11</v>
       </c>
       <c r="Q63" t="n">
-        <v>10561792000</v>
+        <v>7842816000</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -6236,7 +6236,7 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>32.39</v>
+        <v>29.23</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>防御性对冲</t>
         </is>
       </c>
     </row>
@@ -6267,59 +6267,59 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>FTS</t>
+          <t>FOXA</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>51.93</v>
+        <v>73.09</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>51.62 - 52.24</t>
+          <t>72.68 - 73.56</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>51.93</v>
+        <v>73.12</v>
       </c>
       <c r="F64" t="n">
-        <v>49.59</v>
+        <v>69.83</v>
       </c>
       <c r="G64" t="n">
-        <v>62.32</v>
+        <v>87.70999999999999</v>
       </c>
       <c r="H64" t="n">
-        <v>67.92</v>
+        <v>81.77</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>-0.02</v>
+        <v>-0.28</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.04</v>
+        <v>-0.26</v>
       </c>
       <c r="L64" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="M64" t="n">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="N64" t="n">
-        <v>505400000</v>
+        <v>208361696</v>
       </c>
       <c r="O64" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.19</v>
       </c>
       <c r="P64" t="n">
-        <v>-0.76</v>
+        <v>0.7</v>
       </c>
       <c r="Q64" t="n">
-        <v>26245423104</v>
+        <v>32447772672</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -6328,7 +6328,7 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>31.2</v>
+        <v>25.78</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>trend_pullback</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
@@ -6347,89 +6347,89 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>防御性对冲</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ROK</t>
+          <t>NEM</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>417.21</v>
+        <v>114.15</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>414.71 - 419.71</t>
+          <t>113.43 - 114.80</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>417.21</v>
+        <v>114.12</v>
       </c>
       <c r="F65" t="n">
-        <v>398.44</v>
+        <v>104.99</v>
       </c>
       <c r="G65" t="n">
-        <v>500.65</v>
+        <v>136.98</v>
       </c>
       <c r="H65" t="n">
-        <v>79.64</v>
+        <v>95.15000000000001</v>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J65" t="n">
-        <v>-0.42</v>
+        <v>0.99</v>
       </c>
       <c r="K65" t="n">
-        <v>-0.41</v>
+        <v>1.08</v>
       </c>
       <c r="L65" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="M65" t="n">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="N65" t="n">
-        <v>112433185</v>
+        <v>1091262981</v>
       </c>
       <c r="O65" t="n">
-        <v>0.87</v>
+        <v>0.8</v>
       </c>
       <c r="P65" t="n">
-        <v>0.83</v>
+        <v>1.01</v>
       </c>
       <c r="Q65" t="n">
-        <v>46908248064</v>
+        <v>126013702144</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>阶段不明，仅观察</t>
+          <t>阶段不明，小仓试探</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>31.01</v>
+        <v>100</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>明确吸筹</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
@@ -6439,7 +6439,7 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -6451,77 +6451,77 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>SII</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>192.27</v>
+        <v>112.75</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>191.12 - 193.42</t>
+          <t>110.36 - 111.72</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>192.27</v>
+        <v>111.04</v>
       </c>
       <c r="F66" t="n">
-        <v>183.62</v>
+        <v>102.16</v>
       </c>
       <c r="G66" t="n">
-        <v>230.72</v>
+        <v>135.3</v>
       </c>
       <c r="H66" t="n">
-        <v>67.17</v>
+        <v>94.05</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J66" t="n">
-        <v>-0.03</v>
+        <v>0.04</v>
       </c>
       <c r="K66" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M66" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="N66" t="n">
-        <v>40376534</v>
+        <v>25786258</v>
       </c>
       <c r="O66" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="P66" t="n">
-        <v>-0.11</v>
+        <v>1.56</v>
       </c>
       <c r="Q66" t="n">
-        <v>7842816000</v>
+        <v>2907400704</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>阶段不明，仅观察</t>
+          <t>阶段不明，小仓试探</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>29.23</v>
+        <v>100</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>明确吸筹</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
@@ -6531,67 +6531,67 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>FOXA</t>
+          <t>GOOG</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>73.09</v>
+        <v>336.31</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>72.65 - 73.53</t>
+          <t>332.57 - 336.61</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>73.09</v>
+        <v>334.59</v>
       </c>
       <c r="F67" t="n">
-        <v>69.8</v>
+        <v>319.46</v>
       </c>
       <c r="G67" t="n">
-        <v>87.70999999999999</v>
+        <v>403.57</v>
       </c>
       <c r="H67" t="n">
-        <v>81.77</v>
+        <v>89.33</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.28</v>
+        <v>0.33</v>
       </c>
       <c r="K67" t="n">
-        <v>-0.26</v>
+        <v>0.35</v>
       </c>
       <c r="L67" t="n">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="M67" t="n">
-        <v>0.17</v>
+        <v>0.35</v>
       </c>
       <c r="N67" t="n">
-        <v>208361696</v>
+        <v>5407000000</v>
       </c>
       <c r="O67" t="n">
-        <v>1.19</v>
+        <v>0.61</v>
       </c>
       <c r="P67" t="n">
-        <v>0.7</v>
+        <v>0.32</v>
       </c>
       <c r="Q67" t="n">
-        <v>32447772672</v>
+        <v>4016902504448</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -6600,20 +6600,20 @@
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>阶段不明，仅观察</t>
+          <t>阶段不明，小仓试探</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>25.78</v>
+        <v>100</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>明确吸筹</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>trend_pullback</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
@@ -6623,71 +6623,71 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NEM</t>
+          <t>CHRW</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>114.15</v>
+        <v>172.31</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>113.47 - 114.83</t>
+          <t>171.74 - 173.81</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>114.15</v>
+        <v>172.77</v>
       </c>
       <c r="F68" t="n">
-        <v>105.02</v>
+        <v>164.68</v>
       </c>
       <c r="G68" t="n">
-        <v>136.98</v>
+        <v>206.77</v>
       </c>
       <c r="H68" t="n">
-        <v>95.15000000000001</v>
+        <v>88.53</v>
       </c>
       <c r="I68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J68" t="n">
-        <v>0.99</v>
+        <v>0.68</v>
       </c>
       <c r="K68" t="n">
-        <v>1.08</v>
+        <v>0.68</v>
       </c>
       <c r="L68" t="n">
-        <v>0.2</v>
+        <v>-0.11</v>
       </c>
       <c r="M68" t="n">
-        <v>0.23</v>
+        <v>0.34</v>
       </c>
       <c r="N68" t="n">
-        <v>1091262981</v>
+        <v>118137178</v>
       </c>
       <c r="O68" t="n">
-        <v>0.8</v>
+        <v>1.01</v>
       </c>
       <c r="P68" t="n">
-        <v>1.01</v>
+        <v>0.85</v>
       </c>
       <c r="Q68" t="n">
-        <v>126013702144</v>
+        <v>20356216832</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
@@ -6727,59 +6727,59 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SII</t>
+          <t>ATMU</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>112.75</v>
+        <v>55.6</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>112.07 - 113.43</t>
+          <t>55.15 - 55.82</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>112.75</v>
+        <v>55.49</v>
       </c>
       <c r="F69" t="n">
-        <v>103.73</v>
+        <v>52.81</v>
       </c>
       <c r="G69" t="n">
-        <v>135.3</v>
+        <v>66.72</v>
       </c>
       <c r="H69" t="n">
-        <v>94.05</v>
+        <v>81.89</v>
       </c>
       <c r="I69" t="n">
         <v>4</v>
       </c>
       <c r="J69" t="n">
-        <v>0.04</v>
+        <v>0.25</v>
       </c>
       <c r="K69" t="n">
-        <v>0.04</v>
+        <v>0.27</v>
       </c>
       <c r="L69" t="n">
-        <v>0.4</v>
+        <v>0.11</v>
       </c>
       <c r="M69" t="n">
-        <v>0.14</v>
+        <v>0.72</v>
       </c>
       <c r="N69" t="n">
-        <v>25786258</v>
+        <v>81507839</v>
       </c>
       <c r="O69" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P69" t="n">
         <v>0.57</v>
       </c>
-      <c r="P69" t="n">
-        <v>1.56</v>
-      </c>
       <c r="Q69" t="n">
-        <v>2907400704</v>
+        <v>4567650304</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -6807,67 +6807,67 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>NYT</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>336.31</v>
+        <v>71.75</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>334.29 - 338.33</t>
+          <t>71.10 - 71.96</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>336.31</v>
+        <v>71.53</v>
       </c>
       <c r="F70" t="n">
-        <v>321.18</v>
+        <v>68.3</v>
       </c>
       <c r="G70" t="n">
-        <v>403.57</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="H70" t="n">
-        <v>89.33</v>
+        <v>80.41</v>
       </c>
       <c r="I70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J70" t="n">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="K70" t="n">
-        <v>0.35</v>
+        <v>0.28</v>
       </c>
       <c r="L70" t="n">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="M70" t="n">
-        <v>0.35</v>
+        <v>0.18</v>
       </c>
       <c r="N70" t="n">
-        <v>5407000000</v>
+        <v>161568285</v>
       </c>
       <c r="O70" t="n">
-        <v>0.61</v>
+        <v>0.99</v>
       </c>
       <c r="P70" t="n">
-        <v>0.32</v>
+        <v>0.7</v>
       </c>
       <c r="Q70" t="n">
-        <v>4016902504448</v>
+        <v>11682249728</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>明确吸筹</t>
+          <t>极度缩量(隐蔽吸筹)</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
@@ -6899,7 +6899,7 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
@@ -6911,59 +6911,59 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>CHRW</t>
+          <t>DAKT</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>172.31</v>
+        <v>21.7</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>171.28 - 173.34</t>
+          <t>21.37 - 21.63</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>172.31</v>
+        <v>21.5</v>
       </c>
       <c r="F71" t="n">
-        <v>164.56</v>
+        <v>20.18</v>
       </c>
       <c r="G71" t="n">
-        <v>206.77</v>
+        <v>26.04</v>
       </c>
       <c r="H71" t="n">
-        <v>88.53</v>
+        <v>76.42</v>
       </c>
       <c r="I71" t="n">
         <v>4</v>
       </c>
       <c r="J71" t="n">
-        <v>0.68</v>
+        <v>-0.18</v>
       </c>
       <c r="K71" t="n">
-        <v>0.68</v>
+        <v>0.57</v>
       </c>
       <c r="L71" t="n">
-        <v>-0.11</v>
+        <v>0.1</v>
       </c>
       <c r="M71" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="N71" t="n">
-        <v>118137178</v>
+        <v>48747817</v>
       </c>
       <c r="O71" t="n">
-        <v>1.01</v>
+        <v>0.72</v>
       </c>
       <c r="P71" t="n">
-        <v>0.85</v>
+        <v>0.77</v>
       </c>
       <c r="Q71" t="n">
-        <v>20356216832</v>
+        <v>1057827648</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>100</v>
+        <v>97.56999999999999</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -7003,59 +7003,59 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ATMU</t>
+          <t>LFUS</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>55.6</v>
+        <v>280.34</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>55.27 - 55.93</t>
+          <t>278.29 - 281.65</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>55.6</v>
+        <v>279.97</v>
       </c>
       <c r="F72" t="n">
-        <v>52.81</v>
+        <v>267.35</v>
       </c>
       <c r="G72" t="n">
-        <v>66.72</v>
+        <v>336.41</v>
       </c>
       <c r="H72" t="n">
-        <v>81.89</v>
+        <v>69.23999999999999</v>
       </c>
       <c r="I72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J72" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="K72" t="n">
-        <v>0.27</v>
+        <v>0.19</v>
       </c>
       <c r="L72" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="M72" t="n">
-        <v>0.72</v>
+        <v>0.05</v>
       </c>
       <c r="N72" t="n">
-        <v>81507839</v>
+        <v>24901687</v>
       </c>
       <c r="O72" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="P72" t="n">
-        <v>0.57</v>
+        <v>0.8</v>
       </c>
       <c r="Q72" t="n">
-        <v>4567650304</v>
+        <v>6980939264</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
@@ -7064,7 +7064,7 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>100</v>
+        <v>96.98</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
@@ -7095,59 +7095,57 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NYT</t>
+          <t>DBRG</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>71.75</v>
+        <v>15.36</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>71.32 - 72.18</t>
+          <t>15.26 - 15.45</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>71.75</v>
+        <v>15.36</v>
       </c>
       <c r="F73" t="n">
-        <v>68.52</v>
+        <v>14.67</v>
       </c>
       <c r="G73" t="n">
-        <v>86.09999999999999</v>
+        <v>18.43</v>
       </c>
       <c r="H73" t="n">
-        <v>80.41</v>
+        <v>80.98999999999999</v>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.28</v>
-      </c>
+        <v>1.28</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
-        <v>0.1</v>
+        <v>-0.95</v>
       </c>
       <c r="M73" t="n">
-        <v>0.18</v>
+        <v>-0.02</v>
       </c>
       <c r="N73" t="n">
-        <v>161568285</v>
+        <v>182669899</v>
       </c>
       <c r="O73" t="n">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="P73" t="n">
-        <v>0.7</v>
+        <v>-0.39</v>
       </c>
       <c r="Q73" t="n">
-        <v>11682249728</v>
+        <v>2996963328</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
@@ -7156,7 +7154,7 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>100</v>
+        <v>92.87</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
@@ -7187,59 +7185,59 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DAKT</t>
+          <t>IQV</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>21.7</v>
+        <v>241.35</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>21.57 - 21.83</t>
+          <t>239.94 - 242.84</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>21.7</v>
+        <v>241.39</v>
       </c>
       <c r="F74" t="n">
-        <v>20.18</v>
+        <v>230.53</v>
       </c>
       <c r="G74" t="n">
-        <v>26.04</v>
+        <v>289.62</v>
       </c>
       <c r="H74" t="n">
-        <v>76.42</v>
+        <v>76.63</v>
       </c>
       <c r="I74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.18</v>
+        <v>0.16</v>
       </c>
       <c r="K74" t="n">
-        <v>0.57</v>
+        <v>0.24</v>
       </c>
       <c r="L74" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="M74" t="n">
-        <v>0.03</v>
+        <v>0.19</v>
       </c>
       <c r="N74" t="n">
-        <v>48747817</v>
+        <v>170300000</v>
       </c>
       <c r="O74" t="n">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="P74" t="n">
-        <v>0.77</v>
+        <v>0.88</v>
       </c>
       <c r="Q74" t="n">
-        <v>1057827648</v>
+        <v>41101905920</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
@@ -7248,11 +7246,11 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>97.56999999999999</v>
+        <v>91.41</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>明确吸筹</t>
+          <t>极度缩量(隐蔽吸筹)</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
@@ -7267,7 +7265,7 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
@@ -7279,59 +7277,59 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>LFUS</t>
+          <t>MMS</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>280.34</v>
+        <v>96.02</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>278.66 - 282.02</t>
+          <t>95.16 - 96.31</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>280.34</v>
+        <v>95.73999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>267.72</v>
+        <v>91.42</v>
       </c>
       <c r="G75" t="n">
-        <v>336.41</v>
+        <v>115.22</v>
       </c>
       <c r="H75" t="n">
-        <v>69.23999999999999</v>
+        <v>75.19</v>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="K75" t="n">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="L75" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>0.05</v>
+        <v>0.18</v>
       </c>
       <c r="N75" t="n">
-        <v>24901687</v>
+        <v>54461507</v>
       </c>
       <c r="O75" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="P75" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="Q75" t="n">
-        <v>6980939264</v>
+        <v>5410691072</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
@@ -7340,7 +7338,7 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>96.98</v>
+        <v>89.68000000000001</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
@@ -7359,7 +7357,7 @@
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -7371,57 +7369,59 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DBRG</t>
+          <t>ALNT</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>15.36</v>
+        <v>61.49</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>15.27 - 15.45</t>
+          <t>60.35 - 61.09</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>15.36</v>
+        <v>60.72</v>
       </c>
       <c r="F76" t="n">
-        <v>14.67</v>
+        <v>55.86</v>
       </c>
       <c r="G76" t="n">
-        <v>18.43</v>
+        <v>73.79000000000001</v>
       </c>
       <c r="H76" t="n">
-        <v>80.98999999999999</v>
+        <v>92.45999999999999</v>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J76" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
+        <v>2.08</v>
+      </c>
+      <c r="K76" t="n">
+        <v>2.06</v>
+      </c>
       <c r="L76" t="n">
-        <v>-0.95</v>
+        <v>0.11</v>
       </c>
       <c r="M76" t="n">
-        <v>-0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N76" t="n">
-        <v>182669899</v>
+        <v>16943497</v>
       </c>
       <c r="O76" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="P76" t="n">
-        <v>-0.39</v>
+        <v>0.87</v>
       </c>
       <c r="Q76" t="n">
-        <v>2996963328</v>
+        <v>1041855616</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
@@ -7430,11 +7430,11 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>92.87</v>
+        <v>88.77</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>极度缩量(隐蔽吸筹)</t>
+          <t>明确吸筹</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
@@ -7449,7 +7449,7 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>防御性对冲</t>
         </is>
       </c>
     </row>
@@ -7461,59 +7461,59 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>IQV</t>
+          <t>WWD</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>241.35</v>
+        <v>331.25</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>239.90 - 242.80</t>
+          <t>326.73 - 330.71</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>241.35</v>
+        <v>328.72</v>
       </c>
       <c r="F77" t="n">
-        <v>230.49</v>
+        <v>313.81</v>
       </c>
       <c r="G77" t="n">
-        <v>289.62</v>
+        <v>397.5</v>
       </c>
       <c r="H77" t="n">
-        <v>76.63</v>
+        <v>86.59</v>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J77" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L77" t="n">
         <v>0.16</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0.05</v>
       </c>
       <c r="M77" t="n">
         <v>0.19</v>
       </c>
       <c r="N77" t="n">
-        <v>170300000</v>
+        <v>59996788</v>
       </c>
       <c r="O77" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="P77" t="n">
-        <v>0.88</v>
+        <v>0.52</v>
       </c>
       <c r="Q77" t="n">
-        <v>41101905920</v>
+        <v>19873935360</v>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -7522,11 +7522,11 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>91.41</v>
+        <v>88.19</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>极度缩量(隐蔽吸筹)</t>
+          <t>明确吸筹</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
@@ -7541,7 +7541,7 @@
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>防御性对冲</t>
         </is>
       </c>
     </row>
@@ -7553,55 +7553,55 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MMS</t>
+          <t>TTC</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>96.02</v>
+        <v>88.45</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>95.44 - 96.60</t>
+          <t>88.20 - 89.26</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>96.02</v>
+        <v>88.73</v>
       </c>
       <c r="F78" t="n">
-        <v>91.7</v>
+        <v>83.04000000000001</v>
       </c>
       <c r="G78" t="n">
-        <v>115.22</v>
+        <v>106.14</v>
       </c>
       <c r="H78" t="n">
-        <v>75.19</v>
+        <v>68.55</v>
       </c>
       <c r="I78" t="n">
         <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>0.04</v>
+        <v>-0.19</v>
       </c>
       <c r="K78" t="n">
-        <v>0.11</v>
+        <v>-0.14</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="M78" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="N78" t="n">
-        <v>54461507</v>
+        <v>97904689</v>
       </c>
       <c r="O78" t="n">
-        <v>1.07</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="P78" t="n">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="Q78" t="n">
-        <v>5410691072</v>
+        <v>8659668992</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>89.68000000000001</v>
+        <v>78.42</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
@@ -7645,59 +7645,59 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ALNT</t>
+          <t>JHG</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>61.49</v>
+        <v>48.11</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>61.12 - 61.86</t>
+          <t>47.70 - 48.27</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>61.49</v>
+        <v>47.99</v>
       </c>
       <c r="F79" t="n">
-        <v>56.57</v>
+        <v>45.83</v>
       </c>
       <c r="G79" t="n">
-        <v>73.79000000000001</v>
+        <v>57.73</v>
       </c>
       <c r="H79" t="n">
-        <v>92.45999999999999</v>
+        <v>69.17</v>
       </c>
       <c r="I79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J79" t="n">
-        <v>2.08</v>
+        <v>4.2</v>
       </c>
       <c r="K79" t="n">
-        <v>2.06</v>
+        <v>4.41</v>
       </c>
       <c r="L79" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M79" t="n">
         <v>0.11</v>
       </c>
-      <c r="M79" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="N79" t="n">
-        <v>16943497</v>
+        <v>149399212</v>
       </c>
       <c r="O79" t="n">
-        <v>0.77</v>
+        <v>0.95</v>
       </c>
       <c r="P79" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="Q79" t="n">
-        <v>1041855616</v>
+        <v>7431860224</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
@@ -7706,11 +7706,11 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>88.77</v>
+        <v>78.14</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>明确吸筹</t>
+          <t>极度缩量(隐蔽吸筹)</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
@@ -7737,59 +7737,59 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>WWD</t>
+          <t>LAUR</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>331.25</v>
+        <v>34.87</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>329.26 - 333.24</t>
+          <t>34.65 - 35.07</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>331.25</v>
+        <v>34.86</v>
       </c>
       <c r="F80" t="n">
-        <v>314.05</v>
+        <v>33.29</v>
       </c>
       <c r="G80" t="n">
-        <v>397.5</v>
+        <v>41.84</v>
       </c>
       <c r="H80" t="n">
-        <v>86.59</v>
+        <v>87.39</v>
       </c>
       <c r="I80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>0.65</v>
+        <v>-0.6</v>
       </c>
       <c r="K80" t="n">
-        <v>0.64</v>
+        <v>-0.59</v>
       </c>
       <c r="L80" t="n">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="M80" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="N80" t="n">
-        <v>59996788</v>
+        <v>147369162</v>
       </c>
       <c r="O80" t="n">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="P80" t="n">
-        <v>0.52</v>
+        <v>0.95</v>
       </c>
       <c r="Q80" t="n">
-        <v>19873935360</v>
+        <v>5138762752</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
@@ -7798,11 +7798,11 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>88.19</v>
+        <v>74.53</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>明确吸筹</t>
+          <t>极度缩量(隐蔽吸筹)</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
@@ -7817,7 +7817,7 @@
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
@@ -7829,59 +7829,59 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TTC</t>
+          <t>NVMI</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>88.45</v>
+        <v>413.04</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>87.92 - 88.98</t>
+          <t>409.30 - 414.25</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>88.45</v>
+        <v>411.77</v>
       </c>
       <c r="F81" t="n">
-        <v>83.04000000000001</v>
+        <v>378.83</v>
       </c>
       <c r="G81" t="n">
-        <v>106.14</v>
+        <v>495.65</v>
       </c>
       <c r="H81" t="n">
-        <v>68.55</v>
+        <v>88.66</v>
       </c>
       <c r="I81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J81" t="n">
-        <v>-0.19</v>
+        <v>0.2</v>
       </c>
       <c r="K81" t="n">
-        <v>-0.14</v>
+        <v>0.19</v>
       </c>
       <c r="L81" t="n">
-        <v>-0.01</v>
+        <v>0.26</v>
       </c>
       <c r="M81" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="N81" t="n">
-        <v>97904689</v>
+        <v>29652464</v>
       </c>
       <c r="O81" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="P81" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="Q81" t="n">
-        <v>8659668992</v>
+        <v>12247654400</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
@@ -7890,7 +7890,7 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>78.42</v>
+        <v>74.36</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>防御性对冲</t>
         </is>
       </c>
     </row>
@@ -7921,59 +7921,59 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>JHG</t>
+          <t>JBHT</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>48.11</v>
+        <v>205.81</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>47.82 - 48.40</t>
+          <t>204.17 - 206.64</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>48.11</v>
+        <v>205.4</v>
       </c>
       <c r="F82" t="n">
-        <v>45.95</v>
+        <v>196.14</v>
       </c>
       <c r="G82" t="n">
-        <v>57.73</v>
+        <v>246.97</v>
       </c>
       <c r="H82" t="n">
-        <v>69.17</v>
+        <v>76.78</v>
       </c>
       <c r="I82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>4.2</v>
+        <v>0.12</v>
       </c>
       <c r="K82" t="n">
-        <v>4.41</v>
+        <v>0.18</v>
       </c>
       <c r="L82" t="n">
-        <v>0.12</v>
+        <v>-0</v>
       </c>
       <c r="M82" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="N82" t="n">
-        <v>149399212</v>
+        <v>95218346</v>
       </c>
       <c r="O82" t="n">
-        <v>0.95</v>
+        <v>0.78</v>
       </c>
       <c r="P82" t="n">
-        <v>0.86</v>
+        <v>0.22</v>
       </c>
       <c r="Q82" t="n">
-        <v>7431860224</v>
+        <v>19922259968</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
@@ -7982,7 +7982,7 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>78.14</v>
+        <v>71.70999999999999</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
@@ -8001,7 +8001,7 @@
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
@@ -8013,59 +8013,59 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>LAUR</t>
+          <t>EMR</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>34.87</v>
+        <v>148.15</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>34.66 - 35.08</t>
+          <t>146.45 - 148.22</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>34.87</v>
+        <v>147.34</v>
       </c>
       <c r="F83" t="n">
-        <v>33.3</v>
+        <v>140.67</v>
       </c>
       <c r="G83" t="n">
-        <v>41.84</v>
+        <v>177.78</v>
       </c>
       <c r="H83" t="n">
-        <v>87.39</v>
+        <v>68.20999999999999</v>
       </c>
       <c r="I83" t="n">
         <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.6</v>
+        <v>-0.36</v>
       </c>
       <c r="K83" t="n">
-        <v>-0.59</v>
+        <v>-0.35</v>
       </c>
       <c r="L83" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M83" t="n">
         <v>0.09</v>
       </c>
-      <c r="M83" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N83" t="n">
-        <v>147369162</v>
+        <v>562302093</v>
       </c>
       <c r="O83" t="n">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
       <c r="P83" t="n">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="Q83" t="n">
-        <v>5138762752</v>
+        <v>83305046016</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
@@ -8074,11 +8074,11 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>74.53</v>
+        <v>63.57</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>极度缩量(隐蔽吸筹)</t>
+          <t>明确吸筹</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
@@ -8093,7 +8093,7 @@
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>防御性对冲</t>
         </is>
       </c>
     </row>
@@ -8105,68 +8105,68 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NVMI</t>
+          <t>SXI</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>413.04</v>
+        <v>247.01</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>410.56 - 415.52</t>
+          <t>242.61 - 245.57</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>413.04</v>
+        <v>244.09</v>
       </c>
       <c r="F84" t="n">
-        <v>380</v>
+        <v>231.14</v>
       </c>
       <c r="G84" t="n">
-        <v>495.65</v>
+        <v>296.41</v>
       </c>
       <c r="H84" t="n">
-        <v>88.66</v>
+        <v>81.68000000000001</v>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J84" t="n">
-        <v>0.2</v>
+        <v>6.6</v>
       </c>
       <c r="K84" t="n">
-        <v>0.19</v>
+        <v>6.61</v>
       </c>
       <c r="L84" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="M84" t="n">
-        <v>0.24</v>
+        <v>0.08</v>
       </c>
       <c r="N84" t="n">
-        <v>29652464</v>
+        <v>12116999</v>
       </c>
       <c r="O84" t="n">
-        <v>0.78</v>
+        <v>1.05</v>
       </c>
       <c r="P84" t="n">
-        <v>0.67</v>
+        <v>0.21</v>
       </c>
       <c r="Q84" t="n">
-        <v>12247654400</v>
+        <v>2993019904</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>阶段不明，小仓试探</t>
+          <t>非趋势结构，仅观察</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>74.36</v>
+        <v>57.03</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>range</t>
         </is>
       </c>
       <c r="W84" t="inlineStr">
@@ -8185,89 +8185,89 @@
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>JBHT</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>205.81</v>
+        <v>223.6</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>204.58 - 207.04</t>
+          <t>220.13 - 222.81</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>205.81</v>
+        <v>221.47</v>
       </c>
       <c r="F85" t="n">
-        <v>196.55</v>
+        <v>203.75</v>
       </c>
       <c r="G85" t="n">
-        <v>246.97</v>
+        <v>268.32</v>
       </c>
       <c r="H85" t="n">
-        <v>76.78</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J85" t="n">
-        <v>0.12</v>
+        <v>0.61</v>
       </c>
       <c r="K85" t="n">
-        <v>0.18</v>
+        <v>0.6</v>
       </c>
       <c r="L85" t="n">
-        <v>-0</v>
+        <v>0.36</v>
       </c>
       <c r="M85" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="N85" t="n">
-        <v>95218346</v>
+        <v>1628041540</v>
       </c>
       <c r="O85" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="P85" t="n">
-        <v>0.22</v>
+        <v>0.51</v>
       </c>
       <c r="Q85" t="n">
-        <v>19922259968</v>
+        <v>380400041984</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>阶段不明，小仓试探</t>
+          <t>非趋势结构，仅观察</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>71.70999999999999</v>
+        <v>55.36</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>极度缩量(隐蔽吸筹)</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="W85" t="inlineStr">
@@ -8277,7 +8277,7 @@
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -8289,77 +8289,77 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>EMR</t>
+          <t>TRS</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>148.15</v>
+        <v>34.64</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>147.26 - 149.04</t>
+          <t>34.13 - 34.55</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>148.15</v>
+        <v>34.34</v>
       </c>
       <c r="F86" t="n">
-        <v>140.7</v>
+        <v>32.78</v>
       </c>
       <c r="G86" t="n">
-        <v>177.78</v>
+        <v>41.57</v>
       </c>
       <c r="H86" t="n">
-        <v>68.20999999999999</v>
+        <v>75.17</v>
       </c>
       <c r="I86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J86" t="n">
-        <v>-0.36</v>
+        <v>2.68</v>
       </c>
       <c r="K86" t="n">
-        <v>-0.35</v>
+        <v>2.81</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
       <c r="M86" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="N86" t="n">
-        <v>562302093</v>
+        <v>40645671</v>
       </c>
       <c r="O86" t="n">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="P86" t="n">
-        <v>0.88</v>
+        <v>0.37</v>
       </c>
       <c r="Q86" t="n">
-        <v>83305046016</v>
+        <v>1407966080</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>阶段不明，小仓试探</t>
+          <t>非趋势结构，仅观察</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>63.57</v>
+        <v>47.9</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>明确吸筹</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>range</t>
         </is>
       </c>
       <c r="W86" t="inlineStr">
@@ -8369,7 +8369,7 @@
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -8381,55 +8381,55 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>AME</t>
+          <t>PRLB</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>211.12</v>
+        <v>53.67</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>209.85 - 212.39</t>
+          <t>53.04 - 53.68</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>211.12</v>
+        <v>53.36</v>
       </c>
       <c r="F87" t="n">
-        <v>201.62</v>
+        <v>50.94</v>
       </c>
       <c r="G87" t="n">
-        <v>253.34</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H87" t="n">
-        <v>68.8</v>
+        <v>78.48999999999999</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="L87" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="M87" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="N87" t="n">
-        <v>230203873</v>
+        <v>23678745</v>
       </c>
       <c r="O87" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="P87" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="Q87" t="n">
-        <v>48758996992</v>
+        <v>1281358208</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
@@ -8438,11 +8438,11 @@
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>阶段不明，小仓试探</t>
+          <t>非趋势结构，仅观察</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>57.89</v>
+        <v>46.21</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
@@ -8451,17 +8451,17 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>range</t>
         </is>
       </c>
       <c r="W87" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>distribution</t>
         </is>
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -8473,59 +8473,59 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SXI</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>247.01</v>
+        <v>237.3</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>245.53 - 248.49</t>
+          <t>235.55 - 238.40</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>247.01</v>
+        <v>236.98</v>
       </c>
       <c r="F88" t="n">
-        <v>231.14</v>
+        <v>223.09</v>
       </c>
       <c r="G88" t="n">
-        <v>296.41</v>
+        <v>284.76</v>
       </c>
       <c r="H88" t="n">
-        <v>81.68000000000001</v>
+        <v>83.34999999999999</v>
       </c>
       <c r="I88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J88" t="n">
-        <v>6.6</v>
+        <v>1.4</v>
       </c>
       <c r="K88" t="n">
-        <v>6.61</v>
+        <v>1.45</v>
       </c>
       <c r="L88" t="n">
-        <v>0.27</v>
+        <v>0.17</v>
       </c>
       <c r="M88" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="N88" t="n">
-        <v>12116999</v>
+        <v>294189246</v>
       </c>
       <c r="O88" t="n">
-        <v>1.05</v>
+        <v>0.92</v>
       </c>
       <c r="P88" t="n">
-        <v>0.21</v>
+        <v>0.51</v>
       </c>
       <c r="Q88" t="n">
-        <v>2993019904</v>
+        <v>69898649600</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
@@ -8534,7 +8534,7 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>57.03</v>
+        <v>41.84</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
@@ -8553,67 +8553,67 @@
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>防御性对冲</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>MPWR</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>223.6</v>
+        <v>983.6</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>222.26 - 224.94</t>
+          <t>972.45 - 984.25</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>223.6</v>
+        <v>978.35</v>
       </c>
       <c r="F89" t="n">
-        <v>205.71</v>
+        <v>934.09</v>
       </c>
       <c r="G89" t="n">
-        <v>268.32</v>
+        <v>1180.32</v>
       </c>
       <c r="H89" t="n">
-        <v>81.09999999999999</v>
+        <v>83.12</v>
       </c>
       <c r="I89" t="n">
         <v>5</v>
       </c>
       <c r="J89" t="n">
-        <v>0.61</v>
+        <v>0.23</v>
       </c>
       <c r="K89" t="n">
-        <v>0.6</v>
+        <v>0.26</v>
       </c>
       <c r="L89" t="n">
-        <v>0.36</v>
+        <v>0.19</v>
       </c>
       <c r="M89" t="n">
-        <v>0.05</v>
+        <v>0.64</v>
       </c>
       <c r="N89" t="n">
-        <v>1628041540</v>
+        <v>47907000</v>
       </c>
       <c r="O89" t="n">
-        <v>0.7</v>
+        <v>1.04</v>
       </c>
       <c r="P89" t="n">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="Q89" t="n">
-        <v>380400041984</v>
+        <v>47121321984</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
@@ -8626,16 +8626,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>55.36</v>
+        <v>41.42</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>控盘减弱预警</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>range</t>
         </is>
       </c>
       <c r="W89" t="inlineStr">
@@ -8657,55 +8657,55 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>EBAY</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>34.64</v>
+        <v>94.42</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>34.43 - 34.85</t>
+          <t>93.44 - 94.57</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>34.64</v>
+        <v>94.01000000000001</v>
       </c>
       <c r="F90" t="n">
-        <v>33.08</v>
+        <v>89.55</v>
       </c>
       <c r="G90" t="n">
-        <v>41.57</v>
+        <v>113.3</v>
       </c>
       <c r="H90" t="n">
-        <v>75.17</v>
+        <v>76.69</v>
       </c>
       <c r="I90" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>2.68</v>
+        <v>-0</v>
       </c>
       <c r="K90" t="n">
-        <v>2.81</v>
+        <v>0.05</v>
       </c>
       <c r="L90" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="M90" t="n">
-        <v>0.06</v>
+        <v>0.42</v>
       </c>
       <c r="N90" t="n">
-        <v>40645671</v>
+        <v>452000000</v>
       </c>
       <c r="O90" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="P90" t="n">
-        <v>0.37</v>
+        <v>0.78</v>
       </c>
       <c r="Q90" t="n">
-        <v>1407966080</v>
+        <v>43149938688</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
@@ -8718,11 +8718,11 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>47.9</v>
+        <v>39.55</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>明确吸筹</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
@@ -8737,7 +8737,7 @@
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
@@ -8749,59 +8749,59 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>PRLB</t>
+          <t>CRUS</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>53.67</v>
+        <v>124.38</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>53.35 - 53.99</t>
+          <t>123.79 - 125.28</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>53.67</v>
+        <v>124.53</v>
       </c>
       <c r="F91" t="n">
-        <v>51.25</v>
+        <v>118.22</v>
       </c>
       <c r="G91" t="n">
-        <v>64.40000000000001</v>
+        <v>149.26</v>
       </c>
       <c r="H91" t="n">
-        <v>78.48999999999999</v>
+        <v>68.53</v>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="K91" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="L91" t="n">
         <v>0.04</v>
       </c>
-      <c r="L91" t="n">
-        <v>0.08</v>
-      </c>
       <c r="M91" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="N91" t="n">
-        <v>23678745</v>
+        <v>51030389</v>
       </c>
       <c r="O91" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="P91" t="n">
-        <v>0.79</v>
+        <v>0.72</v>
       </c>
       <c r="Q91" t="n">
-        <v>1281358208</v>
+        <v>6384696320</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="S91" t="inlineStr">
@@ -8810,11 +8810,11 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>46.21</v>
+        <v>36.37</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>极度缩量(隐蔽吸筹)</t>
+          <t>控盘减弱预警</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="W91" t="inlineStr">
         <is>
-          <t>distribution</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="X91" t="inlineStr">
@@ -8841,59 +8841,59 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>IDA</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>237.3</v>
+        <v>132.22</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>235.88 - 238.72</t>
+          <t>131.10 - 132.69</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>237.3</v>
+        <v>131.89</v>
       </c>
       <c r="F92" t="n">
-        <v>223.09</v>
+        <v>125.8</v>
       </c>
       <c r="G92" t="n">
-        <v>284.76</v>
+        <v>158.66</v>
       </c>
       <c r="H92" t="n">
-        <v>83.34999999999999</v>
+        <v>67.19</v>
       </c>
       <c r="I92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J92" t="n">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
       <c r="K92" t="n">
-        <v>1.45</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L92" t="n">
-        <v>0.17</v>
+        <v>-0.01</v>
       </c>
       <c r="M92" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="N92" t="n">
-        <v>294189246</v>
+        <v>54045224</v>
       </c>
       <c r="O92" t="n">
-        <v>0.92</v>
+        <v>1.03</v>
       </c>
       <c r="P92" t="n">
-        <v>0.51</v>
+        <v>-0.77</v>
       </c>
       <c r="Q92" t="n">
-        <v>69898649600</v>
+        <v>7145859584</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
@@ -8902,11 +8902,11 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>41.84</v>
+        <v>31.67</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>明确吸筹</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
@@ -8921,7 +8921,7 @@
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
@@ -8933,55 +8933,55 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MPWR</t>
+          <t>DLO</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>983.6</v>
+        <v>14.22</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>977.70 - 989.50</t>
+          <t>14.03 - 14.20</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>983.6</v>
+        <v>14.11</v>
       </c>
       <c r="F93" t="n">
-        <v>936.39</v>
+        <v>13.47</v>
       </c>
       <c r="G93" t="n">
-        <v>1180.32</v>
+        <v>17.06</v>
       </c>
       <c r="H93" t="n">
-        <v>83.12</v>
+        <v>71.83</v>
       </c>
       <c r="I93" t="n">
         <v>5</v>
       </c>
       <c r="J93" t="n">
-        <v>0.23</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K93" t="n">
-        <v>0.26</v>
+        <v>0.89</v>
       </c>
       <c r="L93" t="n">
-        <v>0.19</v>
+        <v>0.52</v>
       </c>
       <c r="M93" t="n">
-        <v>0.64</v>
+        <v>0.36</v>
       </c>
       <c r="N93" t="n">
-        <v>47907000</v>
+        <v>165673366</v>
       </c>
       <c r="O93" t="n">
-        <v>1.04</v>
+        <v>0.6</v>
       </c>
       <c r="P93" t="n">
-        <v>0.54</v>
+        <v>0.66</v>
       </c>
       <c r="Q93" t="n">
-        <v>47121321984</v>
+        <v>4191025920</v>
       </c>
       <c r="R93" t="inlineStr">
         <is>
@@ -8994,11 +8994,11 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>41.42</v>
+        <v>27.29</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>控盘减弱预警</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
@@ -9008,12 +9008,12 @@
       </c>
       <c r="W93" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>distribution</t>
         </is>
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>防御性对冲</t>
         </is>
       </c>
     </row>
@@ -9025,59 +9025,59 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>EBAY</t>
+          <t>ESE</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>94.42</v>
+        <v>212.51</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>93.85 - 94.99</t>
+          <t>210.54 - 213.09</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>94.42</v>
+        <v>211.82</v>
       </c>
       <c r="F94" t="n">
-        <v>89.55</v>
+        <v>202.26</v>
       </c>
       <c r="G94" t="n">
-        <v>113.3</v>
+        <v>255.01</v>
       </c>
       <c r="H94" t="n">
-        <v>76.69</v>
+        <v>77.53</v>
       </c>
       <c r="I94" t="n">
+        <v>3</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="K94" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N94" t="n">
+        <v>25874368</v>
+      </c>
+      <c r="O94" t="n">
         <v>1</v>
       </c>
-      <c r="J94" t="n">
-        <v>-0</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="N94" t="n">
-        <v>452000000</v>
-      </c>
-      <c r="O94" t="n">
-        <v>0.96</v>
-      </c>
       <c r="P94" t="n">
-        <v>0.78</v>
+        <v>1.25</v>
       </c>
       <c r="Q94" t="n">
-        <v>43149938688</v>
+        <v>5498562048</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
@@ -9086,11 +9086,11 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>39.55</v>
+        <v>26.15</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>明确吸筹</t>
+          <t>控盘减弱预警</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
@@ -9117,59 +9117,59 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CRUS</t>
+          <t>NPO</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>124.38</v>
+        <v>229.69</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>123.63 - 125.13</t>
+          <t>229.10 - 231.85</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>124.38</v>
+        <v>230.48</v>
       </c>
       <c r="F95" t="n">
-        <v>118.22</v>
+        <v>220.14</v>
       </c>
       <c r="G95" t="n">
-        <v>149.26</v>
+        <v>275.63</v>
       </c>
       <c r="H95" t="n">
-        <v>68.53</v>
+        <v>72.31</v>
       </c>
       <c r="I95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>0.29</v>
+        <v>0.09</v>
       </c>
       <c r="K95" t="n">
-        <v>0.36</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L95" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="M95" t="n">
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
       <c r="N95" t="n">
-        <v>51030389</v>
+        <v>21065729</v>
       </c>
       <c r="O95" t="n">
-        <v>0.98</v>
+        <v>1.03</v>
       </c>
       <c r="P95" t="n">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="Q95" t="n">
-        <v>6384696320</v>
+        <v>4838586880</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
@@ -9178,7 +9178,7 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>36.37</v>
+        <v>26.02</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
@@ -9209,87 +9209,87 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>IDA</t>
+          <t>CGAU</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>132.22</v>
+        <v>15.96</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>131.43 - 133.01</t>
+          <t>15.95 - 16.15</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>132.22</v>
+        <v>16.05</v>
       </c>
       <c r="F96" t="n">
-        <v>125.8</v>
+        <v>14.86</v>
       </c>
       <c r="G96" t="n">
-        <v>158.66</v>
+        <v>19.15</v>
       </c>
       <c r="H96" t="n">
-        <v>67.19</v>
+        <v>95.38</v>
       </c>
       <c r="I96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1</v>
+        <v>9.15</v>
       </c>
       <c r="K96" t="n">
-        <v>0.07000000000000001</v>
+        <v>9.91</v>
       </c>
       <c r="L96" t="n">
-        <v>-0.01</v>
+        <v>0.22</v>
       </c>
       <c r="M96" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="N96" t="n">
-        <v>54045224</v>
+        <v>201768421</v>
       </c>
       <c r="O96" t="n">
-        <v>1.03</v>
+        <v>0.95</v>
       </c>
       <c r="P96" t="n">
-        <v>-0.77</v>
+        <v>0.41</v>
       </c>
       <c r="Q96" t="n">
-        <v>7145859584</v>
+        <v>3225274112</v>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>非趋势结构，仅观察</t>
+          <t>高位资金博弈，避免参与</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>31.67</v>
+        <v>39.87</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>控盘减弱预警</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>range</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W96" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>late</t>
         </is>
       </c>
       <c r="X96" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>多头拥挤</t>
         </is>
       </c>
     </row>
@@ -9301,55 +9301,55 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>DLO</t>
+          <t>OSIS</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>14.22</v>
+        <v>286.65</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>14.13 - 14.31</t>
+          <t>281.66 - 285.10</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>14.22</v>
+        <v>283.38</v>
       </c>
       <c r="F97" t="n">
-        <v>13.58</v>
+        <v>267.09</v>
       </c>
       <c r="G97" t="n">
-        <v>17.06</v>
+        <v>343.98</v>
       </c>
       <c r="H97" t="n">
-        <v>71.83</v>
+        <v>86.15000000000001</v>
       </c>
       <c r="I97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J97" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="K97" t="n">
-        <v>0.89</v>
+        <v>0.12</v>
       </c>
       <c r="L97" t="n">
-        <v>0.52</v>
+        <v>0.12</v>
       </c>
       <c r="M97" t="n">
-        <v>0.36</v>
+        <v>0.18</v>
       </c>
       <c r="N97" t="n">
-        <v>165673366</v>
+        <v>16977873</v>
       </c>
       <c r="O97" t="n">
-        <v>0.6</v>
+        <v>1.16</v>
       </c>
       <c r="P97" t="n">
-        <v>0.66</v>
+        <v>0.74</v>
       </c>
       <c r="Q97" t="n">
-        <v>4191025920</v>
+        <v>4866706944</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -9358,30 +9358,30 @@
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>非趋势结构，仅观察</t>
+          <t>高位资金博弈，避免参与</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>27.29</v>
+        <v>34.38</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>控盘减弱预警</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>range</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>distribution</t>
+          <t>late</t>
         </is>
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -9393,82 +9393,82 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ESE</t>
+          <t>AMG</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>212.51</v>
+        <v>315.19</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>211.23 - 213.79</t>
+          <t>311.37 - 315.15</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>212.51</v>
+        <v>313.26</v>
       </c>
       <c r="F98" t="n">
-        <v>202.95</v>
+        <v>299.08</v>
       </c>
       <c r="G98" t="n">
-        <v>255.01</v>
+        <v>378.23</v>
       </c>
       <c r="H98" t="n">
-        <v>77.53</v>
+        <v>87.41</v>
       </c>
       <c r="I98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J98" t="n">
-        <v>-0.1</v>
+        <v>0.72</v>
       </c>
       <c r="K98" t="n">
-        <v>-0.1</v>
+        <v>0.82</v>
       </c>
       <c r="L98" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="M98" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="N98" t="n">
-        <v>25874368</v>
+        <v>28128908</v>
       </c>
       <c r="O98" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="P98" t="n">
-        <v>1.25</v>
+        <v>0.17</v>
       </c>
       <c r="Q98" t="n">
-        <v>5498562048</v>
+        <v>8955198464</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>非趋势结构，仅观察</t>
+          <t>高位阶段，风险偏大</t>
         </is>
       </c>
       <c r="T98" t="n">
-        <v>26.15</v>
+        <v>68.63</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>控盘减弱预警</t>
+          <t>明确吸筹</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>range</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W98" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>late</t>
         </is>
       </c>
       <c r="X98" t="inlineStr">
@@ -9485,87 +9485,87 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NPO</t>
+          <t>KGC</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>229.69</v>
+        <v>33.29</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>228.31 - 231.07</t>
+          <t>33.17 - 33.57</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>229.69</v>
+        <v>33.37</v>
       </c>
       <c r="F99" t="n">
-        <v>219.35</v>
+        <v>30.7</v>
       </c>
       <c r="G99" t="n">
-        <v>275.63</v>
+        <v>39.95</v>
       </c>
       <c r="H99" t="n">
-        <v>72.31</v>
+        <v>96.34999999999999</v>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J99" t="n">
-        <v>0.09</v>
+        <v>0.65</v>
       </c>
       <c r="K99" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="L99" t="n">
-        <v>0.1</v>
+        <v>0.26</v>
       </c>
       <c r="M99" t="n">
-        <v>0.06</v>
+        <v>0.25</v>
       </c>
       <c r="N99" t="n">
-        <v>21065729</v>
+        <v>1207100000</v>
       </c>
       <c r="O99" t="n">
-        <v>1.03</v>
+        <v>0.68</v>
       </c>
       <c r="P99" t="n">
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
       <c r="Q99" t="n">
-        <v>4838586880</v>
+        <v>40697815040</v>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>非趋势结构，仅观察</t>
+          <t>高位阶段，风险偏大</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>26.02</v>
+        <v>68.51000000000001</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>控盘减弱预警</t>
+          <t>明确吸筹</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>range</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W99" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>late</t>
         </is>
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>多头拥挤</t>
         </is>
       </c>
     </row>
@@ -9577,55 +9577,55 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CGAU</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>15.96</v>
+        <v>49.95</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>15.86 - 16.06</t>
+          <t>49.62 - 50.21</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>15.96</v>
+        <v>49.91</v>
       </c>
       <c r="F100" t="n">
-        <v>14.86</v>
+        <v>45.92</v>
       </c>
       <c r="G100" t="n">
-        <v>19.15</v>
+        <v>59.94</v>
       </c>
       <c r="H100" t="n">
-        <v>95.38</v>
+        <v>96.66</v>
       </c>
       <c r="I100" t="n">
         <v>4</v>
       </c>
       <c r="J100" t="n">
-        <v>9.15</v>
+        <v>1.7</v>
       </c>
       <c r="K100" t="n">
-        <v>9.91</v>
+        <v>1.76</v>
       </c>
       <c r="L100" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="M100" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="N100" t="n">
-        <v>201768421</v>
+        <v>1687433930</v>
       </c>
       <c r="O100" t="n">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="P100" t="n">
-        <v>0.41</v>
+        <v>0.27</v>
       </c>
       <c r="Q100" t="n">
-        <v>3225274112</v>
+        <v>85405630464</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
@@ -9634,15 +9634,15 @@
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>高位资金博弈，避免参与</t>
+          <t>高位阶段，风险偏大</t>
         </is>
       </c>
       <c r="T100" t="n">
-        <v>39.87</v>
+        <v>62.35</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>控盘减弱预警</t>
+          <t>明确吸筹</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
@@ -9657,7 +9657,7 @@
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>多头拥挤</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -9669,72 +9669,72 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>OSIS</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>286.65</v>
+        <v>99.51000000000001</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>284.93 - 288.37</t>
+          <t>98.55 - 99.75</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>286.65</v>
+        <v>99.15000000000001</v>
       </c>
       <c r="F101" t="n">
-        <v>267.09</v>
+        <v>91.22</v>
       </c>
       <c r="G101" t="n">
-        <v>343.98</v>
+        <v>119.41</v>
       </c>
       <c r="H101" t="n">
-        <v>86.15000000000001</v>
+        <v>97.62</v>
       </c>
       <c r="I101" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
         <v>2</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.15</v>
-      </c>
       <c r="K101" t="n">
-        <v>0.12</v>
+        <v>1.47</v>
       </c>
       <c r="L101" t="n">
-        <v>0.12</v>
+        <v>0.62</v>
       </c>
       <c r="M101" t="n">
-        <v>0.18</v>
+        <v>0.39</v>
       </c>
       <c r="N101" t="n">
-        <v>16977873</v>
+        <v>504888275</v>
       </c>
       <c r="O101" t="n">
-        <v>1.16</v>
+        <v>0.76</v>
       </c>
       <c r="P101" t="n">
-        <v>0.74</v>
+        <v>0.41</v>
       </c>
       <c r="Q101" t="n">
-        <v>4866706944</v>
+        <v>50241433600</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>高位资金博弈，避免参与</t>
+          <t>高位阶段，风险偏大</t>
         </is>
       </c>
       <c r="T101" t="n">
-        <v>34.38</v>
+        <v>58.81</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>控盘减弱预警</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
@@ -9749,7 +9749,7 @@
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>多头拥挤</t>
         </is>
       </c>
     </row>
@@ -9761,59 +9761,59 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>AMG</t>
+          <t>AGI</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>315.19</v>
+        <v>42.99</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>313.30 - 317.08</t>
+          <t>42.49 - 43.01</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>315.19</v>
+        <v>42.75</v>
       </c>
       <c r="F102" t="n">
-        <v>301.01</v>
+        <v>40.13</v>
       </c>
       <c r="G102" t="n">
-        <v>378.23</v>
+        <v>51.59</v>
       </c>
       <c r="H102" t="n">
-        <v>87.41</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="I102" t="n">
         <v>4</v>
       </c>
       <c r="J102" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K102" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="N102" t="n">
+        <v>419834202</v>
+      </c>
+      <c r="O102" t="n">
         <v>0.72</v>
       </c>
-      <c r="K102" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="L102" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M102" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="N102" t="n">
-        <v>28128908</v>
-      </c>
-      <c r="O102" t="n">
-        <v>0.98</v>
-      </c>
       <c r="P102" t="n">
-        <v>0.17</v>
+        <v>0.31</v>
       </c>
       <c r="Q102" t="n">
-        <v>8955198464</v>
+        <v>18048673792</v>
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="S102" t="inlineStr">
@@ -9822,11 +9822,11 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>68.63</v>
+        <v>57.48</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>明确吸筹</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
@@ -9841,7 +9841,7 @@
       </c>
       <c r="X102" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>多头拥挤</t>
         </is>
       </c>
     </row>
@@ -9853,55 +9853,55 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>KGC</t>
+          <t>KALU</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>33.29</v>
+        <v>127.66</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>33.09 - 33.49</t>
+          <t>126.54 - 128.08</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>33.29</v>
+        <v>127.31</v>
       </c>
       <c r="F103" t="n">
-        <v>30.63</v>
+        <v>118.41</v>
       </c>
       <c r="G103" t="n">
-        <v>39.95</v>
+        <v>153.19</v>
       </c>
       <c r="H103" t="n">
-        <v>96.34999999999999</v>
+        <v>89.08</v>
       </c>
       <c r="I103" t="n">
         <v>4</v>
       </c>
       <c r="J103" t="n">
-        <v>0.65</v>
+        <v>3.49</v>
       </c>
       <c r="K103" t="n">
-        <v>0.66</v>
+        <v>3.41</v>
       </c>
       <c r="L103" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="M103" t="n">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="N103" t="n">
-        <v>1207100000</v>
+        <v>16206255</v>
       </c>
       <c r="O103" t="n">
-        <v>0.68</v>
+        <v>0.98</v>
       </c>
       <c r="P103" t="n">
-        <v>0.6</v>
+        <v>-0.7</v>
       </c>
       <c r="Q103" t="n">
-        <v>40697815040</v>
+        <v>2068890624</v>
       </c>
       <c r="R103" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>68.51000000000001</v>
+        <v>52.52</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
@@ -9933,7 +9933,7 @@
       </c>
       <c r="X103" t="inlineStr">
         <is>
-          <t>多头拥挤</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
@@ -9945,59 +9945,59 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>ULTA</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>49.95</v>
+        <v>663.85</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>49.65 - 50.25</t>
+          <t>656.51 - 664.48</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>49.95</v>
+        <v>660.5</v>
       </c>
       <c r="F104" t="n">
-        <v>45.95</v>
+        <v>630.63</v>
       </c>
       <c r="G104" t="n">
-        <v>59.94</v>
+        <v>796.62</v>
       </c>
       <c r="H104" t="n">
-        <v>96.66</v>
+        <v>84.17</v>
       </c>
       <c r="I104" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J104" t="n">
-        <v>1.7</v>
+        <v>-0.05</v>
       </c>
       <c r="K104" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
       <c r="M104" t="n">
-        <v>0.15</v>
+        <v>0.48</v>
       </c>
       <c r="N104" t="n">
-        <v>1687433930</v>
+        <v>44362172</v>
       </c>
       <c r="O104" t="n">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="P104" t="n">
-        <v>0.27</v>
+        <v>0.72</v>
       </c>
       <c r="Q104" t="n">
-        <v>85405630464</v>
+        <v>29765947392</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="S104" t="inlineStr">
@@ -10006,11 +10006,11 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>62.35</v>
+        <v>51.25</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>明确吸筹</t>
+          <t>极度缩量(隐蔽吸筹)</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
@@ -10037,59 +10037,59 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TER</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>99.51000000000001</v>
+        <v>230.19</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>98.91 - 100.11</t>
+          <t>226.43 - 229.19</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>99.51000000000001</v>
+        <v>227.81</v>
       </c>
       <c r="F105" t="n">
-        <v>91.55</v>
+        <v>211.57</v>
       </c>
       <c r="G105" t="n">
-        <v>119.41</v>
+        <v>276.23</v>
       </c>
       <c r="H105" t="n">
-        <v>97.62</v>
+        <v>93.25</v>
       </c>
       <c r="I105" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>2</v>
+        <v>-0.18</v>
       </c>
       <c r="K105" t="n">
-        <v>1.47</v>
+        <v>-0.16</v>
       </c>
       <c r="L105" t="n">
-        <v>0.62</v>
+        <v>0.04</v>
       </c>
       <c r="M105" t="n">
-        <v>0.39</v>
+        <v>0.16</v>
       </c>
       <c r="N105" t="n">
-        <v>504888275</v>
+        <v>156608303</v>
       </c>
       <c r="O105" t="n">
-        <v>0.76</v>
+        <v>1.08</v>
       </c>
       <c r="P105" t="n">
-        <v>0.41</v>
+        <v>0.48</v>
       </c>
       <c r="Q105" t="n">
-        <v>50241433600</v>
+        <v>36617138176</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="S105" t="inlineStr">
@@ -10098,11 +10098,11 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>58.81</v>
+        <v>51.22</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>明确吸筹</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
@@ -10129,59 +10129,59 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>AGI</t>
+          <t>DLTR</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>42.99</v>
+        <v>140.29</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>42.73 - 43.25</t>
+          <t>138.86 - 140.54</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>42.99</v>
+        <v>139.7</v>
       </c>
       <c r="F106" t="n">
-        <v>40.13</v>
+        <v>129</v>
       </c>
       <c r="G106" t="n">
-        <v>51.59</v>
+        <v>168.35</v>
       </c>
       <c r="H106" t="n">
-        <v>91.34999999999999</v>
+        <v>88.37</v>
       </c>
       <c r="I106" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>2.27</v>
+        <v>0.05</v>
       </c>
       <c r="K106" t="n">
-        <v>2.25</v>
+        <v>0.11</v>
       </c>
       <c r="L106" t="n">
-        <v>0.28</v>
+        <v>0.09</v>
       </c>
       <c r="M106" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="N106" t="n">
-        <v>419834202</v>
+        <v>198853187</v>
       </c>
       <c r="O106" t="n">
-        <v>0.72</v>
+        <v>1.16</v>
       </c>
       <c r="P106" t="n">
-        <v>0.31</v>
+        <v>0.61</v>
       </c>
       <c r="Q106" t="n">
-        <v>18048673792</v>
+        <v>28614647808</v>
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="S106" t="inlineStr">
@@ -10190,7 +10190,7 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>57.48</v>
+        <v>36.56</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
       </c>
       <c r="X106" t="inlineStr">
         <is>
-          <t>多头拥挤</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -10221,59 +10221,59 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>KALU</t>
+          <t>FTI</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>127.66</v>
+        <v>52.24</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>126.89 - 128.43</t>
+          <t>51.75 - 52.37</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>127.66</v>
+        <v>52.06</v>
       </c>
       <c r="F107" t="n">
-        <v>118.41</v>
+        <v>47.9</v>
       </c>
       <c r="G107" t="n">
-        <v>153.19</v>
+        <v>62.69</v>
       </c>
       <c r="H107" t="n">
-        <v>89.08</v>
+        <v>87.13</v>
       </c>
       <c r="I107" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>3.49</v>
+        <v>0.13</v>
       </c>
       <c r="K107" t="n">
-        <v>3.41</v>
+        <v>0.19</v>
       </c>
       <c r="L107" t="n">
         <v>0.13</v>
       </c>
       <c r="M107" t="n">
-        <v>0.12</v>
+        <v>0.29</v>
       </c>
       <c r="N107" t="n">
-        <v>16206255</v>
+        <v>404520086</v>
       </c>
       <c r="O107" t="n">
-        <v>0.98</v>
+        <v>1.03</v>
       </c>
       <c r="P107" t="n">
-        <v>-0.7</v>
+        <v>0.7</v>
       </c>
       <c r="Q107" t="n">
-        <v>2068890624</v>
+        <v>21471502336</v>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
@@ -10282,11 +10282,11 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>52.52</v>
+        <v>36.33</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>明确吸筹</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
@@ -10301,7 +10301,7 @@
       </c>
       <c r="X107" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -10313,59 +10313,59 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ULTA</t>
+          <t>HLIO</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>663.85</v>
+        <v>61.57</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>659.87 - 667.83</t>
+          <t>60.93 - 61.67</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>663.85</v>
+        <v>61.3</v>
       </c>
       <c r="F108" t="n">
-        <v>633.98</v>
+        <v>56.4</v>
       </c>
       <c r="G108" t="n">
-        <v>796.62</v>
+        <v>73.88</v>
       </c>
       <c r="H108" t="n">
-        <v>84.17</v>
+        <v>84.81999999999999</v>
       </c>
       <c r="I108" t="n">
         <v>2</v>
       </c>
       <c r="J108" t="n">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
+        <v>-0.09</v>
       </c>
       <c r="L108" t="n">
         <v>0.13</v>
       </c>
       <c r="M108" t="n">
-        <v>0.48</v>
+        <v>0.04</v>
       </c>
       <c r="N108" t="n">
-        <v>44362172</v>
+        <v>33128494</v>
       </c>
       <c r="O108" t="n">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="P108" t="n">
-        <v>0.72</v>
+        <v>0.51</v>
       </c>
       <c r="Q108" t="n">
-        <v>29765947392</v>
+        <v>2041281920</v>
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S108" t="inlineStr">
@@ -10374,11 +10374,11 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>51.25</v>
+        <v>35.31</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>极度缩量(隐蔽吸筹)</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
@@ -10393,7 +10393,7 @@
       </c>
       <c r="X108" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
@@ -10405,59 +10405,59 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>PATK</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>230.19</v>
+        <v>120.19</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>228.81 - 231.57</t>
+          <t>118.98 - 120.42</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>230.19</v>
+        <v>119.7</v>
       </c>
       <c r="F109" t="n">
-        <v>211.77</v>
+        <v>112.08</v>
       </c>
       <c r="G109" t="n">
-        <v>276.23</v>
+        <v>144.23</v>
       </c>
       <c r="H109" t="n">
-        <v>93.25</v>
+        <v>78.91</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J109" t="n">
-        <v>-0.18</v>
+        <v>-0.14</v>
       </c>
       <c r="K109" t="n">
         <v>-0.16</v>
       </c>
       <c r="L109" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="M109" t="n">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="N109" t="n">
-        <v>156608303</v>
+        <v>33276096</v>
       </c>
       <c r="O109" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="P109" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="Q109" t="n">
-        <v>36617138176</v>
+        <v>3999764224</v>
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="S109" t="inlineStr">
@@ -10466,11 +10466,11 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>51.22</v>
+        <v>35.14</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>明确吸筹</t>
+          <t>底部试探</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
@@ -10484,374 +10484,6 @@
         </is>
       </c>
       <c r="X109" t="inlineStr">
-        <is>
-          <t>多头拥挤</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>DLTR</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
-        <v>140.29</v>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>139.45 - 141.13</t>
-        </is>
-      </c>
-      <c r="E110" t="n">
-        <v>140.29</v>
-      </c>
-      <c r="F110" t="n">
-        <v>129.07</v>
-      </c>
-      <c r="G110" t="n">
-        <v>168.35</v>
-      </c>
-      <c r="H110" t="n">
-        <v>88.37</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="L110" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="M110" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N110" t="n">
-        <v>198853187</v>
-      </c>
-      <c r="O110" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P110" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="Q110" t="n">
-        <v>28614647808</v>
-      </c>
-      <c r="R110" t="inlineStr">
-        <is>
-          <t>Consumer Defensive</t>
-        </is>
-      </c>
-      <c r="S110" t="inlineStr">
-        <is>
-          <t>高位阶段，风险偏大</t>
-        </is>
-      </c>
-      <c r="T110" t="n">
-        <v>36.56</v>
-      </c>
-      <c r="U110" t="inlineStr">
-        <is>
-          <t>量价中性</t>
-        </is>
-      </c>
-      <c r="V110" t="inlineStr">
-        <is>
-          <t>strong_uptrend</t>
-        </is>
-      </c>
-      <c r="W110" t="inlineStr">
-        <is>
-          <t>late</t>
-        </is>
-      </c>
-      <c r="X110" t="inlineStr">
-        <is>
-          <t>中性</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>FTI</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>52.24</v>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>51.93 - 52.55</t>
-        </is>
-      </c>
-      <c r="E111" t="n">
-        <v>52.24</v>
-      </c>
-      <c r="F111" t="n">
-        <v>48.06</v>
-      </c>
-      <c r="G111" t="n">
-        <v>62.69</v>
-      </c>
-      <c r="H111" t="n">
-        <v>87.13</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="L111" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="M111" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="N111" t="n">
-        <v>404520086</v>
-      </c>
-      <c r="O111" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P111" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Q111" t="n">
-        <v>21471502336</v>
-      </c>
-      <c r="R111" t="inlineStr">
-        <is>
-          <t>Energy</t>
-        </is>
-      </c>
-      <c r="S111" t="inlineStr">
-        <is>
-          <t>高位阶段，风险偏大</t>
-        </is>
-      </c>
-      <c r="T111" t="n">
-        <v>36.33</v>
-      </c>
-      <c r="U111" t="inlineStr">
-        <is>
-          <t>量价中性</t>
-        </is>
-      </c>
-      <c r="V111" t="inlineStr">
-        <is>
-          <t>strong_uptrend</t>
-        </is>
-      </c>
-      <c r="W111" t="inlineStr">
-        <is>
-          <t>late</t>
-        </is>
-      </c>
-      <c r="X111" t="inlineStr">
-        <is>
-          <t>中性</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>HLIO</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>61.57</v>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>61.20 - 61.94</t>
-        </is>
-      </c>
-      <c r="E112" t="n">
-        <v>61.57</v>
-      </c>
-      <c r="F112" t="n">
-        <v>56.64</v>
-      </c>
-      <c r="G112" t="n">
-        <v>73.88</v>
-      </c>
-      <c r="H112" t="n">
-        <v>84.81999999999999</v>
-      </c>
-      <c r="I112" t="n">
-        <v>2</v>
-      </c>
-      <c r="J112" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="K112" t="n">
-        <v>-0.09</v>
-      </c>
-      <c r="L112" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="M112" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N112" t="n">
-        <v>33128494</v>
-      </c>
-      <c r="O112" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P112" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="Q112" t="n">
-        <v>2041281920</v>
-      </c>
-      <c r="R112" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="S112" t="inlineStr">
-        <is>
-          <t>高位阶段，风险偏大</t>
-        </is>
-      </c>
-      <c r="T112" t="n">
-        <v>35.31</v>
-      </c>
-      <c r="U112" t="inlineStr">
-        <is>
-          <t>量价中性</t>
-        </is>
-      </c>
-      <c r="V112" t="inlineStr">
-        <is>
-          <t>strong_uptrend</t>
-        </is>
-      </c>
-      <c r="W112" t="inlineStr">
-        <is>
-          <t>late</t>
-        </is>
-      </c>
-      <c r="X112" t="inlineStr">
-        <is>
-          <t>机构偏多</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>PATK</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>120.19</v>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>119.47 - 120.91</t>
-        </is>
-      </c>
-      <c r="E113" t="n">
-        <v>120.19</v>
-      </c>
-      <c r="F113" t="n">
-        <v>112.08</v>
-      </c>
-      <c r="G113" t="n">
-        <v>144.23</v>
-      </c>
-      <c r="H113" t="n">
-        <v>78.91</v>
-      </c>
-      <c r="I113" t="n">
-        <v>2</v>
-      </c>
-      <c r="J113" t="n">
-        <v>-0.14</v>
-      </c>
-      <c r="K113" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="L113" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="M113" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N113" t="n">
-        <v>33276096</v>
-      </c>
-      <c r="O113" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P113" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="Q113" t="n">
-        <v>3999764224</v>
-      </c>
-      <c r="R113" t="inlineStr">
-        <is>
-          <t>Consumer Cyclical</t>
-        </is>
-      </c>
-      <c r="S113" t="inlineStr">
-        <is>
-          <t>高位阶段，风险偏大</t>
-        </is>
-      </c>
-      <c r="T113" t="n">
-        <v>35.14</v>
-      </c>
-      <c r="U113" t="inlineStr">
-        <is>
-          <t>底部试探</t>
-        </is>
-      </c>
-      <c r="V113" t="inlineStr">
-        <is>
-          <t>strong_uptrend</t>
-        </is>
-      </c>
-      <c r="W113" t="inlineStr">
-        <is>
-          <t>late</t>
-        </is>
-      </c>
-      <c r="X113" t="inlineStr">
         <is>
           <t>防御性对冲</t>
         </is>
